--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887231424</v>
+        <v>1084.604887231449</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4639999866485596</v>
+        <v>0.312000036239624</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.73637742065376</v>
+        <v>33.42003702099418</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.25609647079093</v>
+        <v>15.38703688534934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.12460628158638</v>
+        <v>6.57188709580437</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>891.4699999999749</v>
+        <v>739.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>265.82</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.469817807045693</v>
+        <v>27.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5.441553087125037</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,10 +957,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,29 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>49.19199999999964</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>132.4459999999981</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>167.0489999999978</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000029</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.098</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="8">
@@ -1118,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>167.0489999999978</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>122.0979999999997</v>
+        <v>167.2</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.04899999999776</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09799999999973</v>
+        <v>67.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1245,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.765</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="4">
@@ -1256,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6.629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1267,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1278,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1294,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1341,7 +1316,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
